--- a/biology/Botanique/Pierre_Marty_(géologue)/Pierre_Marty_(géologue).xlsx
+++ b/biology/Botanique/Pierre_Marty_(géologue)/Pierre_Marty_(géologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Marty_(g%C3%A9ologue)</t>
+          <t>Pierre_Marty_(géologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Marty est un naturaliste, géologue et un botaniste français, né le 4 février 1868 à Nice et décédé le 28 juillet 1940 au château de Caillac à Vézac (Cantal)[1]. Pionnier de la paléontologie végétale, il a mis en évidence les gisements de diatomite.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Marty est un naturaliste, géologue et un botaniste français, né le 4 février 1868 à Nice et décédé le 28 juillet 1940 au château de Caillac à Vézac (Cantal). Pionnier de la paléontologie végétale, il a mis en évidence les gisements de diatomite.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Marty_(g%C3%A9ologue)</t>
+          <t>Pierre_Marty_(géologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Félix Marty, rentier qui séjourne l'hiver à Nice, et de Marguerite Gaudiot, il est éduqué par des précepteurs. Il obtint son baccalauréat à 16 ans à Clermont-Ferrand, et partit faire de rapides études à l'Université de Toulouse. Il revint en 1888 en Haute-Auvergne, après un service militaire écourté pour raison de santé, ce qui lui fit renoncer à préparer Saint-Cyr.
 Attiré par les sciences naturelles, il se lia très tôt au groupe de naturalistes gravitant autour de Jean-Baptiste Rames à Aurillac. Il s'initia à la géologie, à la zoologie, à la géographie physique, participant à la vaste entreprise d'étude du volcan cantalien lancée par Rames. Il se créa un réseau de correspondants européens et constitua au château de Caillac un herbier et une bibliothèque de référence.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Marty_(g%C3%A9ologue)</t>
+          <t>Pierre_Marty_(géologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Hommages taxonomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paléontologue français contemporain et ami Louis Émile Piton (1909-1945) lui a rendu hommage par le taxon d'un coléoptère fossile Damarsilia martyi Piton, 1935.
 Le paléontologue français contemporain Nicolas Théobald (1903-1981) lui a aussi rendu hommage (conjointement) avec le taxon fossile du coléoptère Anomala martyi Piton &amp; Théobald, 1939.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Marty_(g%C3%A9ologue)</t>
+          <t>Pierre_Marty_(géologue)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un Nouvel horizon paléontologique du Cantal.
 Flore plaisancienne des argiles cinéritiques de Niac (Cantal), 1908,</t>
